--- a/config/long_variable_names_to_short_variable_names.xlsx
+++ b/config/long_variable_names_to_short_variable_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APERC\power-model\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9885D41E-2D1B-474D-8473-F025E6FC9E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F484437E-97B8-4E7F-9377-E97918A3A2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27045" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EMISSION" sheetId="1" r:id="rId1"/>
@@ -24,47 +24,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="266">
-  <si>
-    <t>1_x_coal_thermal_CO2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="285">
   <si>
     <t>1_xC02</t>
   </si>
   <si>
-    <t>1_5_lignite_CO2</t>
-  </si>
-  <si>
     <t>1_5C02</t>
   </si>
   <si>
-    <t>2_coal_products_CO2</t>
-  </si>
-  <si>
     <t>2C02</t>
   </si>
   <si>
-    <t>7_7_gas_diesel_oil_CO2</t>
-  </si>
-  <si>
     <t>7_7C02</t>
   </si>
   <si>
-    <t>7_8_fuel_oil_CO2</t>
-  </si>
-  <si>
     <t>7_8C02</t>
   </si>
   <si>
-    <t>8_1_natural_gas_CO2</t>
-  </si>
-  <si>
     <t>8_1C02</t>
   </si>
   <si>
-    <t>8_1_natural_gas_CCS_CO2</t>
-  </si>
-  <si>
     <t>8_1CCSC02</t>
   </si>
   <si>
@@ -326,51 +305,24 @@
     <t>17I</t>
   </si>
   <si>
-    <t>17_electricity_PV</t>
-  </si>
-  <si>
-    <t>17P</t>
-  </si>
-  <si>
-    <t>1_x_coal_thermal</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>1_5_lignite</t>
-  </si>
-  <si>
     <t>1_5</t>
   </si>
   <si>
-    <t>2_coal_products</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>7_7_gas_diesel_oil</t>
-  </si>
-  <si>
     <t>7_7</t>
   </si>
   <si>
-    <t>7_8_fuel_oil</t>
-  </si>
-  <si>
     <t>7_8</t>
   </si>
   <si>
-    <t>8_1_natural_gas</t>
-  </si>
-  <si>
     <t>8_1</t>
   </si>
   <si>
-    <t>8_1_natural_gas_CCS</t>
-  </si>
-  <si>
     <t>8_1CCS</t>
   </si>
   <si>
@@ -386,9 +338,6 @@
     <t>11</t>
   </si>
   <si>
-    <t>12_1_of_which_photovoltaics</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -428,12 +377,6 @@
     <t>PG</t>
   </si>
   <si>
-    <t>POW_Gas_CCS_PP</t>
-  </si>
-  <si>
-    <t>PGC</t>
-  </si>
-  <si>
     <t>POW_Hydro_PP</t>
   </si>
   <si>
@@ -476,12 +419,6 @@
     <t>PT</t>
   </si>
   <si>
-    <t>POW_TRN</t>
-  </si>
-  <si>
-    <t>PTR</t>
-  </si>
-  <si>
     <t>POW_IMPORT_ELEC_PP</t>
   </si>
   <si>
@@ -494,45 +431,24 @@
     <t>PTB</t>
   </si>
   <si>
-    <t>POW_1_x_coal_thermal</t>
-  </si>
-  <si>
     <t>P1</t>
   </si>
   <si>
-    <t>POW_1_5_lignite</t>
-  </si>
-  <si>
     <t>P1_5</t>
   </si>
   <si>
-    <t>POW_2_coal_products</t>
-  </si>
-  <si>
     <t>P2</t>
   </si>
   <si>
-    <t>POW_7_7_gas_diesel_oil</t>
-  </si>
-  <si>
     <t>P7_7</t>
   </si>
   <si>
-    <t>POW_7_8_fuel_oil</t>
-  </si>
-  <si>
     <t>P7_8</t>
   </si>
   <si>
-    <t>POW_8_1_natural_gas</t>
-  </si>
-  <si>
     <t>P8_1</t>
   </si>
   <si>
-    <t>POW_8_1_natural_gas_CCS</t>
-  </si>
-  <si>
     <t>P8_1CCS</t>
   </si>
   <si>
@@ -578,45 +494,24 @@
     <t>P17I</t>
   </si>
   <si>
-    <t>YYY_1_x_coal_thermal</t>
-  </si>
-  <si>
     <t>Y1</t>
   </si>
   <si>
-    <t>YYY_1_5_lignite</t>
-  </si>
-  <si>
     <t>Y1_5</t>
   </si>
   <si>
-    <t>YYY_2_coal_products</t>
-  </si>
-  <si>
     <t>Y2</t>
   </si>
   <si>
-    <t>YYY_7_7_gas_diesel_oil</t>
-  </si>
-  <si>
     <t>Y7_7</t>
   </si>
   <si>
-    <t>YYY_7_8_fuel_oil</t>
-  </si>
-  <si>
     <t>Y7_8</t>
   </si>
   <si>
-    <t>YYY_8_1_natural_gas</t>
-  </si>
-  <si>
     <t>Y8_1</t>
   </si>
   <si>
-    <t>YYY_8_1_natural_gas_CCS</t>
-  </si>
-  <si>
     <t>Y8_1CCS</t>
   </si>
   <si>
@@ -662,12 +557,6 @@
     <t>Y17</t>
   </si>
   <si>
-    <t>YYY_17_electricity_PV</t>
-  </si>
-  <si>
-    <t>Y17P</t>
-  </si>
-  <si>
     <t>YYY_17_electricity_Dx</t>
   </si>
   <si>
@@ -822,6 +711,174 @@
   </si>
   <si>
     <t>VN</t>
+  </si>
+  <si>
+    <t>17_electricity_PV_to_BATT</t>
+  </si>
+  <si>
+    <t>17_electricity_PV_to_DAM</t>
+  </si>
+  <si>
+    <t>01_x_thermal_coal</t>
+  </si>
+  <si>
+    <t>01_05_lignite</t>
+  </si>
+  <si>
+    <t>02_coal_products</t>
+  </si>
+  <si>
+    <t>07_07_gas_diesel_oil</t>
+  </si>
+  <si>
+    <t>07_08_fuel_oil</t>
+  </si>
+  <si>
+    <t>08_01_natural_gas</t>
+  </si>
+  <si>
+    <t>08_01_natural_gas_CCS</t>
+  </si>
+  <si>
+    <t>12_01_of_which_photovoltaics</t>
+  </si>
+  <si>
+    <t>17B</t>
+  </si>
+  <si>
+    <t>POW_Lignite_PP</t>
+  </si>
+  <si>
+    <t>POW_Coal_NEW_PP</t>
+  </si>
+  <si>
+    <t>POW_Lignite_NEW_PP</t>
+  </si>
+  <si>
+    <t>POW_Gas_NEW_PP</t>
+  </si>
+  <si>
+    <t>POW_Gas_NEW_CCS_PP</t>
+  </si>
+  <si>
+    <t>POW_SolarPV_BATT_PP</t>
+  </si>
+  <si>
+    <t>POW_SolarPV_DAM_PP</t>
+  </si>
+  <si>
+    <t>POW_TRN_BATT</t>
+  </si>
+  <si>
+    <t>POW_TRN_DAM</t>
+  </si>
+  <si>
+    <t>POW_TDAM</t>
+  </si>
+  <si>
+    <t>POW_01_x_thermal_coal</t>
+  </si>
+  <si>
+    <t>POW_01_05_lignite</t>
+  </si>
+  <si>
+    <t>POW_02_coal_products</t>
+  </si>
+  <si>
+    <t>POW_07_07_gas_diesel_oil</t>
+  </si>
+  <si>
+    <t>POW_07_08_fuel_oil</t>
+  </si>
+  <si>
+    <t>POW_08_01_natural_gas</t>
+  </si>
+  <si>
+    <t>POW_08_01_natural_gas_CCS</t>
+  </si>
+  <si>
+    <t>YYY_01_x_coal_thermal</t>
+  </si>
+  <si>
+    <t>YYY_01_05_lignite</t>
+  </si>
+  <si>
+    <t>YYY_02_coal_products</t>
+  </si>
+  <si>
+    <t>YYY_07_07_gas_diesel_oil</t>
+  </si>
+  <si>
+    <t>YYY_07_08_fuel_oil</t>
+  </si>
+  <si>
+    <t>YYY_08_01_natural_gas</t>
+  </si>
+  <si>
+    <t>YYY_08_01_natural_gas_CCS</t>
+  </si>
+  <si>
+    <t>YYY_17_electricity_PV_to_BATT</t>
+  </si>
+  <si>
+    <t>YYY_17_electricity_PV_to_DAM</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>PCN</t>
+  </si>
+  <si>
+    <t>PLN</t>
+  </si>
+  <si>
+    <t>PGN</t>
+  </si>
+  <si>
+    <t>PGNC</t>
+  </si>
+  <si>
+    <t>PSB</t>
+  </si>
+  <si>
+    <t>PSD</t>
+  </si>
+  <si>
+    <t>PTRB</t>
+  </si>
+  <si>
+    <t>PTRD</t>
+  </si>
+  <si>
+    <t>PTD</t>
+  </si>
+  <si>
+    <t>Y17TB</t>
+  </si>
+  <si>
+    <t>Y17TD</t>
+  </si>
+  <si>
+    <t>01_x_thermal_coal_CO2</t>
+  </si>
+  <si>
+    <t>01_05_lignite_CO2</t>
+  </si>
+  <si>
+    <t>02_coal_products_CO2</t>
+  </si>
+  <si>
+    <t>07_07_gas_diesel_oil_CO2</t>
+  </si>
+  <si>
+    <t>07_08_fuel_oil_CO2</t>
+  </si>
+  <si>
+    <t>08_01_natural_gas_CO2</t>
+  </si>
+  <si>
+    <t>08_01_natural_gas_CCS_CO2</t>
   </si>
 </sst>
 </file>
@@ -840,6 +897,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1187,89 +1245,92 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>279</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>280</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>281</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>282</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>283</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1289,298 +1350,298 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1590,172 +1651,183 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="33.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>229</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>102</v>
+        <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>231</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>106</v>
+        <v>232</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>108</v>
+        <v>233</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>110</v>
+        <v>234</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>112</v>
+        <v>235</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>114</v>
+        <v>236</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>116</v>
+        <v>237</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>122</v>
+        <v>238</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1765,396 +1837,472 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="42.453125" customWidth="1"/>
+    <col min="4" max="4" width="46.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>140</v>
+        <v>243</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>142</v>
+        <v>244</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>150</v>
+        <v>245</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>152</v>
+        <v>246</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>162</v>
+        <v>247</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>170</v>
+        <v>249</v>
       </c>
       <c r="B23" t="s">
-        <v>171</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>172</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>174</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>176</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>178</v>
+        <v>253</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>180</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>182</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>184</v>
+        <v>256</v>
       </c>
       <c r="B30" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="B31" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="B32" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="B33" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="B34" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="B35" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="B36" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="B37" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="B38" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>202</v>
+        <v>258</v>
       </c>
       <c r="B39" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>204</v>
+        <v>259</v>
       </c>
       <c r="B40" t="s">
-        <v>205</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
       <c r="B41" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>208</v>
+        <v>261</v>
       </c>
       <c r="B42" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="B43" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>212</v>
+        <v>263</v>
       </c>
       <c r="B44" t="s">
-        <v>213</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>214</v>
+        <v>163</v>
       </c>
       <c r="B45" t="s">
-        <v>215</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>216</v>
+        <v>165</v>
       </c>
       <c r="B46" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="B47" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="B48" t="s">
-        <v>221</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B49" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B50" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B51" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B52" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B53" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B54" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B55" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B56" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B57" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2166,7 +2314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A423E3-A8D6-4FFB-AC01-6DD4046A47EC}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
@@ -2174,178 +2322,178 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="B1" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="B3" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="B5" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="B7" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="B8" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="B9" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="B10" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="B11" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="B12" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="B13" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="B14" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="B15" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="B16" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="B17" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="B18" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="B19" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="B21" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
